--- a/RUDN/Importance/Varible_in_Northern Europe.xlsx
+++ b/RUDN/Importance/Varible_in_Northern Europe.xlsx
@@ -14,981 +14,831 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="275">
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
   <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>GINI index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
   </si>
   <si>
     <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>Age at first marriage, female</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Female share of employment in senior and middle management (%)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
   </si>
   <si>
     <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
   </si>
   <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, female (%)</t>
-  </si>
-  <si>
-    <t>Age at first marriage, female</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, male (%)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Male population 75-79</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Female population 15-19</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Female population 60-64</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
     <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
   </si>
   <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>GINI index (World Bank estimate)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Bilateral ODA commitments that is untied (current US$)</t>
+  </si>
+  <si>
+    <t>Self-employed, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Age at first marriage, male</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
   </si>
   <si>
     <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Female share of employment in senior and middle management (%)</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
-    <t>Physicians (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
-  </si>
-  <si>
     <t>School enrollment, primary (% gross)</t>
   </si>
   <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
   </si>
   <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
+    <t>School enrollment, primary (% net)</t>
   </si>
   <si>
     <t>Income share held by lowest 20%</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Bilateral ODA commitments that is untied (current US$)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Self-employed, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Hospital beds (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>Agricultural support estimate (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Self-employed, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Total bilateral sector allocable ODA commitments (current US$)</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Rural population</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
-    <t>Country_code</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (% of GNI)</t>
-  </si>
-  <si>
-    <t>Female population 15-19</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B326"/>
+  <dimension ref="A1:B276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1362,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.03823719918727875</v>
+        <v>0.02367530949413776</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1370,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03758911043405533</v>
+        <v>0.02029312215745449</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1378,7 +1228,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03629293665289879</v>
+        <v>0.01916572637856007</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1386,7 +1236,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.02138690836727619</v>
+        <v>0.01916572637856007</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1394,7 +1244,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01490602735430002</v>
+        <v>0.01803833059966564</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1402,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01360985077917576</v>
+        <v>0.01352874841541052</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1410,7 +1260,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01360985077917576</v>
+        <v>0.01240135263651609</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1418,7 +1268,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.01296176295727491</v>
+        <v>0.01240135263651609</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1426,7 +1276,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.01231367420405149</v>
+        <v>0.01240135263651609</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1434,7 +1284,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.01166558638215065</v>
+        <v>0.01240135263651609</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1442,7 +1292,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.01101749856024981</v>
+        <v>0.01240135263651609</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1450,7 +1300,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.009721321985125542</v>
+        <v>0.01127395685762167</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1458,7 +1308,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.009721321985125542</v>
+        <v>0.01127395685762167</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1466,7 +1316,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.009721321985125542</v>
+        <v>0.01127395685762167</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1474,7 +1324,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.008425145410001278</v>
+        <v>0.01014656107872725</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1482,7 +1332,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.008425145410001278</v>
+        <v>0.01014656107872725</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1490,7 +1340,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.008425145410001278</v>
+        <v>0.01014656107872725</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1498,7 +1348,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.007777057588100433</v>
+        <v>0.01014656107872725</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1506,7 +1356,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.007777057588100433</v>
+        <v>0.01014656107872725</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1514,7 +1364,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.007777057588100433</v>
+        <v>0.009019165299832821</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1522,7 +1372,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.007128969766199589</v>
+        <v>0.009019165299832821</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1530,7 +1380,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.007128969766199589</v>
+        <v>0.009019165299832821</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1538,7 +1388,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.007128969766199589</v>
+        <v>0.009019165299832821</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1546,7 +1396,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.006480881478637457</v>
+        <v>0.009019165299832821</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1554,7 +1404,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.006480881478637457</v>
+        <v>0.009019165299832821</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1562,7 +1412,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.006480881478637457</v>
+        <v>0.009019165299832821</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1570,7 +1420,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.006480881478637457</v>
+        <v>0.007891770452260971</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1578,7 +1428,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.006480881478637457</v>
+        <v>0.007891770452260971</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1586,7 +1436,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.006480881478637457</v>
+        <v>0.007891770452260971</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1594,7 +1444,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.006480881478637457</v>
+        <v>0.007891770452260971</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1602,7 +1452,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.006480881478637457</v>
+        <v>0.007891770452260971</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1610,7 +1460,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.005832793191075325</v>
+        <v>0.006764374207705259</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1618,7 +1468,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.005832793191075325</v>
+        <v>0.006764374207705259</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1626,7 +1476,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.005832793191075325</v>
+        <v>0.006764374207705259</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1634,7 +1484,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.005184704903513193</v>
+        <v>0.006764374207705259</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1642,7 +1492,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.005184704903513193</v>
+        <v>0.006764374207705259</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1650,7 +1500,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.005184704903513193</v>
+        <v>0.006764374207705259</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1658,7 +1508,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.005184704903513193</v>
+        <v>0.006764374207705259</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1666,7 +1516,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.005184704903513193</v>
+        <v>0.005636978428810835</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1674,7 +1524,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.005184704903513193</v>
+        <v>0.005636978428810835</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1682,7 +1532,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.005184704903513193</v>
+        <v>0.005636978428810835</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1690,7 +1540,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.005184704903513193</v>
+        <v>0.005636978428810835</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1698,7 +1548,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.005184704903513193</v>
+        <v>0.005636978428810835</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1706,7 +1556,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.005184704903513193</v>
+        <v>0.005636978428810835</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1714,7 +1564,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.005184704903513193</v>
+        <v>0.005636978428810835</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1722,7 +1572,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.005184704903513193</v>
+        <v>0.005636978428810835</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1730,7 +1580,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.005184704903513193</v>
+        <v>0.005636978428810835</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1738,7 +1588,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.005184704903513193</v>
+        <v>0.005636978428810835</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1746,7 +1596,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.005184704903513193</v>
+        <v>0.005636978428810835</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1754,7 +1604,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.005184704903513193</v>
+        <v>0.005636978428810835</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1762,7 +1612,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.004536617081612349</v>
+        <v>0.005636978428810835</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1770,7 +1620,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.004536617081612349</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1778,7 +1628,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.004536617081612349</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1786,7 +1636,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.004536617081612349</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1794,7 +1644,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.004536617081612349</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1802,7 +1652,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.004536617081612349</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1810,7 +1660,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.004536617081612349</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1818,7 +1668,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.004536617081612349</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1826,7 +1676,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.004536617081612349</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1834,7 +1684,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.004536617081612349</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1842,7 +1692,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.004536617081612349</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1850,7 +1700,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.004536617081612349</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1858,7 +1708,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.004536617081612349</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1866,7 +1716,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.004536617081612349</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1874,7 +1724,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.004536617081612349</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1882,7 +1732,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.003888528794050217</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1890,7 +1740,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.003888528794050217</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1898,7 +1748,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.003888528794050217</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1906,7 +1756,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.003888528794050217</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1914,7 +1764,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.003888528794050217</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1922,7 +1772,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.003888528794050217</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1930,7 +1780,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.003888528794050217</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1938,7 +1788,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.003888528794050217</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1946,7 +1796,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.003888528794050217</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1954,7 +1804,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.003888528794050217</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1962,7 +1812,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.003888528794050217</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1970,7 +1820,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.003888528794050217</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1978,7 +1828,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.003888528794050217</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1986,7 +1836,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.003888528794050217</v>
+        <v>0.00450958264991641</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1994,7 +1844,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.003888528794050217</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2002,7 +1852,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.003888528794050217</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2010,7 +1860,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.003888528794050217</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2018,7 +1868,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.003888528794050217</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2026,7 +1876,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.003888528794050217</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2034,7 +1884,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.003240440739318728</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2042,7 +1892,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.003240440739318728</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2050,7 +1900,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.003240440739318728</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2058,7 +1908,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.003240440739318728</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2066,7 +1916,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.003240440739318728</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2074,7 +1924,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.003240440739318728</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2082,7 +1932,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.003240440739318728</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2090,7 +1940,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.003240440739318728</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2098,7 +1948,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.003240440739318728</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2106,7 +1956,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.003240440739318728</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2114,7 +1964,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.003240440739318728</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2122,7 +1972,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.003240440739318728</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2130,7 +1980,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.003240440739318728</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2138,7 +1988,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.003240440739318728</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2146,7 +1996,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.003240440739318728</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2154,7 +2004,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.003240440739318728</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2162,7 +2012,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.003240440739318728</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2170,7 +2020,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.003240440739318728</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2178,7 +2028,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.003240440739318728</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2186,7 +2036,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.003240440739318728</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2194,7 +2044,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.003240440739318728</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2202,7 +2052,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.003240440739318728</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2210,7 +2060,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.002592352451756597</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2218,7 +2068,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.002592352451756597</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2226,7 +2076,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.002592352451756597</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2234,7 +2084,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.002592352451756597</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2242,7 +2092,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.002592352451756597</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2250,7 +2100,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.002592352451756597</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2258,7 +2108,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.002592352451756597</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2266,7 +2116,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.002592352451756597</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2274,7 +2124,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.002592352451756597</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2282,7 +2132,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.002592352451756597</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2290,7 +2140,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.002592352451756597</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2298,7 +2148,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.002592352451756597</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2306,7 +2156,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.002592352451756597</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2314,7 +2164,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.002592352451756597</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2322,7 +2172,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.002592352451756597</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2330,7 +2180,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.002592352451756597</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2338,7 +2188,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.002592352451756597</v>
+        <v>0.00338218710385263</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2346,7 +2196,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.002592352451756597</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2354,7 +2204,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.002592352451756597</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2362,7 +2212,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.002592352451756597</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2370,7 +2220,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.002592352451756597</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2378,7 +2228,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.002592352451756597</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2386,7 +2236,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.002592352451756597</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2394,7 +2244,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.002592352451756597</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2402,7 +2252,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.002592352451756597</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2410,7 +2260,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.002592352451756597</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2418,7 +2268,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.002592352451756597</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2426,7 +2276,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.002592352451756597</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2434,7 +2284,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.002592352451756597</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2442,7 +2292,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.002592352451756597</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2450,7 +2300,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.002592352451756597</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2458,7 +2308,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.002592352451756597</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2466,7 +2316,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.002592352451756597</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2474,7 +2324,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.002592352451756597</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2482,7 +2332,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.002592352451756597</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2490,7 +2340,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.002592352451756597</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2498,7 +2348,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.002592352451756597</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2506,7 +2356,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2514,7 +2364,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2522,7 +2372,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2530,7 +2380,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2538,7 +2388,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2546,7 +2396,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2554,7 +2404,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2562,7 +2412,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2570,7 +2420,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2578,7 +2428,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2586,7 +2436,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2594,7 +2444,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2602,7 +2452,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2610,7 +2460,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2618,7 +2468,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2626,7 +2476,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2634,7 +2484,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2642,7 +2492,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2650,7 +2500,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2658,7 +2508,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2666,7 +2516,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2674,7 +2524,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2682,7 +2532,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2690,7 +2540,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2698,7 +2548,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2706,7 +2556,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2714,7 +2564,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2722,7 +2572,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2730,7 +2580,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2738,7 +2588,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2746,7 +2596,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2754,7 +2604,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2762,7 +2612,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2770,7 +2620,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2778,7 +2628,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2786,7 +2636,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2794,7 +2644,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2802,7 +2652,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2810,7 +2660,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2818,7 +2668,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2826,7 +2676,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2834,7 +2684,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.001944264397025108</v>
+        <v>0.002254791324958205</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2842,7 +2692,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.001944264397025108</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2850,7 +2700,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.001944264397025108</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2858,7 +2708,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.001944264397025108</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2866,7 +2716,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.001944264397025108</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2874,7 +2724,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.001944264397025108</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2882,7 +2732,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.001944264397025108</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2890,7 +2740,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2898,7 +2748,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2906,7 +2756,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2914,7 +2764,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2922,7 +2772,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2930,7 +2780,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2938,7 +2788,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2946,7 +2796,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2954,7 +2804,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2962,7 +2812,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2970,7 +2820,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2978,7 +2828,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2986,7 +2836,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2994,7 +2844,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3002,7 +2852,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3010,7 +2860,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3018,7 +2868,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3026,7 +2876,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3034,7 +2884,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3042,7 +2892,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3050,7 +2900,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3058,7 +2908,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3066,7 +2916,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3074,7 +2924,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3082,7 +2932,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3090,7 +2940,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3098,7 +2948,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3106,7 +2956,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3114,7 +2964,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3122,7 +2972,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3130,7 +2980,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3138,7 +2988,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3146,7 +2996,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3154,7 +3004,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3162,7 +3012,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3170,7 +3020,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3178,7 +3028,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3186,7 +3036,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3194,7 +3044,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3202,7 +3052,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3210,7 +3060,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3218,7 +3068,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3226,7 +3076,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3234,7 +3084,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3242,7 +3092,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3250,7 +3100,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3258,7 +3108,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3266,7 +3116,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3274,7 +3124,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3282,7 +3132,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3290,7 +3140,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3298,7 +3148,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3306,7 +3156,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3314,7 +3164,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3322,7 +3172,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.001296176225878298</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3330,7 +3180,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3338,7 +3188,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3346,7 +3196,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3354,7 +3204,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3362,7 +3212,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3370,7 +3220,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3378,7 +3228,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3386,7 +3236,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3394,7 +3244,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3402,7 +3252,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3410,7 +3260,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3418,7 +3268,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3426,7 +3276,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3434,7 +3284,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3442,7 +3292,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3450,7 +3300,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3458,7 +3308,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3466,7 +3316,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3474,7 +3324,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3482,7 +3332,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3490,7 +3340,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3498,7 +3348,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3506,7 +3356,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3514,7 +3364,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3522,7 +3372,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3530,7 +3380,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3538,7 +3388,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3546,7 +3396,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3554,407 +3404,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B277">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B278">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B279">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B280">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B281">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B282">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B283">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B284">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B285">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="A286" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B286">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B287">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B288">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B289">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
-      <c r="A290" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B290">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
-      <c r="A291" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B291">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
-      <c r="A292" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B292">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
-      <c r="A293" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B293">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
-      <c r="A294" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B294">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
-      <c r="A295" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B295">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
-      <c r="A296" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B296">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
-      <c r="A297" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B297">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
-      <c r="A298" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B298">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
-      <c r="A299" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B299">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
-      <c r="A300" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B300">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
-      <c r="A301" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B301">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B302">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="A303" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B303">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B304">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B305">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
-      <c r="A306" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B306">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
-      <c r="A307" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B307">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2">
-      <c r="A308" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B308">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2">
-      <c r="A309" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B309">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
-      <c r="A310" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B310">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
-      <c r="A311" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B311">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
-      <c r="A312" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B312">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
-      <c r="A313" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B313">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2">
-      <c r="A314" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B314">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2">
-      <c r="A315" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B315">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
-      <c r="A316" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B316">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
-      <c r="A317" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B317">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B318">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2">
-      <c r="A319" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B319">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2">
-      <c r="A320" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B320">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2">
-      <c r="A321" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B321">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2">
-      <c r="A322" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B322">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
-      <c r="A323" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B323">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2">
-      <c r="A324" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B324">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2">
-      <c r="A325" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B325">
-        <v>0.0006480881129391491</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
-      <c r="A326" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B326">
-        <v>0.0006480881129391491</v>
+        <v>0.001127395662479103</v>
       </c>
     </row>
   </sheetData>
